--- a/PostProcessing/PPA_tripshed_template.xlsx
+++ b/PostProcessing/PPA_tripshed_template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PostProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7423C548-6C5D-4836-9A46-C9BB57A16819}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330B6F9A-ED72-4DB1-8C7D-C79B8524B8AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DFF4E10C-C4B4-4997-8CEE-1FD4BC1C0984}"/>
   </bookViews>
   <sheets>
-    <sheet name="Charts" sheetId="2" r:id="rId1"/>
-    <sheet name="import" sheetId="1" r:id="rId2"/>
-    <sheet name="forCharts" sheetId="3" r:id="rId3"/>
+    <sheet name="Accessibility" sheetId="2" r:id="rId1"/>
+    <sheet name="Mode Split" sheetId="5" r:id="rId2"/>
+    <sheet name="Land Use" sheetId="7" r:id="rId3"/>
+    <sheet name="forCharts" sheetId="3" r:id="rId4"/>
+    <sheet name="import" sheetId="1" r:id="rId5"/>
+    <sheet name="Ref" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="117">
   <si>
     <t>tripshed_2016</t>
   </si>
@@ -246,28 +258,142 @@
     <t>ChartID</t>
   </si>
   <si>
-    <t>ChartName</t>
-  </si>
-  <si>
     <t>Region2016</t>
   </si>
   <si>
     <t>Region2040</t>
   </si>
   <si>
-    <t>Acc_BikeWalk</t>
-  </si>
-  <si>
-    <t>Acc_TrnAuto</t>
+    <t>PopTot</t>
+  </si>
+  <si>
+    <t>ModeSplit</t>
+  </si>
+  <si>
+    <t>MixIndex</t>
+  </si>
+  <si>
+    <t>HousingTypeMix</t>
+  </si>
+  <si>
+    <t>NatResources</t>
+  </si>
+  <si>
+    <t>EJPop</t>
+  </si>
+  <si>
+    <t>EJPct</t>
+  </si>
+  <si>
+    <t>Emp_DU</t>
+  </si>
+  <si>
+    <t>Population in EJ Areas</t>
+  </si>
+  <si>
+    <t>zz_notUsed</t>
+  </si>
+  <si>
+    <t>Trip Shed 2016</t>
+  </si>
+  <si>
+    <t>Trip Shed 2040</t>
+  </si>
+  <si>
+    <t>Percent of Population in EJ Areas</t>
+  </si>
+  <si>
+    <t>Population not in EJ Areas</t>
+  </si>
+  <si>
+    <t>Total Dwelling Units</t>
+  </si>
+  <si>
+    <t>Total Jobs</t>
+  </si>
+  <si>
+    <t>Industrial Sector Jobs</t>
+  </si>
+  <si>
+    <t>K-12 Students</t>
+  </si>
+  <si>
+    <t>High Density Housing Units</t>
+  </si>
+  <si>
+    <t>Low Density Housing Units</t>
+  </si>
+  <si>
+    <t>Med-High Density Housing Units</t>
+  </si>
+  <si>
+    <t>Medium Density Housing Units</t>
+  </si>
+  <si>
+    <t>Mixed Use Housing Units</t>
+  </si>
+  <si>
+    <t>Very Low or Rural Res Density Housing Units</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Acc_Job</t>
+  </si>
+  <si>
+    <t>Acc_Edu</t>
+  </si>
+  <si>
+    <t>Acc_Svcs</t>
+  </si>
+  <si>
+    <t>30-Min Walk</t>
+  </si>
+  <si>
+    <t>30-Min Bike Ride</t>
+  </si>
+  <si>
+    <t>30-Min Drive</t>
+  </si>
+  <si>
+    <t>15-Min Drive</t>
+  </si>
+  <si>
+    <t>45-Min Transit Trip</t>
+  </si>
+  <si>
+    <t>SOV</t>
+  </si>
+  <si>
+    <t>HOV</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Acres of Natural Resources (Parks, Open Space, Ag)</t>
+  </si>
+  <si>
+    <t>Mix Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -702,7 +828,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -746,13 +872,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -793,6 +922,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -845,8 +975,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Accessibility</a:t>
+              <a:t>Average Education Facilities Accessible</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -890,7 +1026,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2016</c:v>
+            <c:strRef>
+              <c:f>forCharts!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -902,98 +1046,107 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>import!$A$5:$A$16</c:f>
+              <c:f>forCharts!$C$3:$C$6</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>WALKDESTSalljob</c:v>
+                  <c:v>30-Min Walk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BIKEDESTSalljob</c:v>
+                  <c:v>30-Min Bike Ride</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AUTODESTSalljob</c:v>
+                  <c:v>30-Min Drive</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TRANDESTSalljob</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>WALKDESTSedu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BIKEDESTSedu</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>AUTODESTSedu</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TRANDESTSedu</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>WALKDESTSpoi2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BIKEDESTSpoi2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>AUTODESTSpoi2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TRANDESTSpoi2</c:v>
+                  <c:v>45-Min Transit Trip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>import!$B$5:$B$16</c:f>
+              <c:f>forCharts!$D$3:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4959.5788073546801</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47150.220430221503</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>546922.51641227596</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28735.895729342701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3440607628958201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>46.110431480448398</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>566.39682979890199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.397123030937699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.035058998106098</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>170.39397717339301</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>656.667683735217</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>97.255274927162006</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6B5-40C6-B4B1-F0320AF3C49F}"/>
+              <c16:uniqueId val="{00000001-8948-4EF9-AEC6-D1751EBF42A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1001,7 +1154,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2040</c:v>
+            <c:strRef>
+              <c:f>forCharts!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Region2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1013,98 +1174,107 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>import!$A$5:$A$16</c:f>
+              <c:f>forCharts!$C$3:$C$6</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>WALKDESTSalljob</c:v>
+                  <c:v>30-Min Walk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BIKEDESTSalljob</c:v>
+                  <c:v>30-Min Bike Ride</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AUTODESTSalljob</c:v>
+                  <c:v>30-Min Drive</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TRANDESTSalljob</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>WALKDESTSedu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BIKEDESTSedu</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>AUTODESTSedu</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TRANDESTSedu</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>WALKDESTSpoi2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BIKEDESTSpoi2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>AUTODESTSpoi2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TRANDESTSpoi2</c:v>
+                  <c:v>45-Min Transit Trip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>import!$D$5:$D$16</c:f>
+              <c:f>forCharts!$F$3:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3842.4108777193601</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37354.023709342597</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475047.24569611403</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22213.193547074599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6382414187566896</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.186082797940898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>492.55290133648498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.4606584204593</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.1471982764354</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140.10012353515299</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>520.32769799543701</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>77.938922900995607</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6B5-40C6-B4B1-F0320AF3C49F}"/>
+              <c16:uniqueId val="{00000002-8948-4EF9-AEC6-D1751EBF42A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1116,13 +1286,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1126745616"/>
-        <c:axId val="1163749472"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="1301966480"/>
+        <c:axId val="1053666400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1126745616"/>
+        <c:axId val="1301966480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163749472"/>
+        <c:crossAx val="1053666400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1173,7 +1342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1163749472"/>
+        <c:axId val="1053666400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,62 +1362,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Destinations Accessible</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1279,7 +1393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126745616"/>
+        <c:crossAx val="1301966480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1292,7 +1406,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1401,7 +1515,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Job and Demographic Characteristics</a:t>
+              <a:t>Average Jobs Accessible</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1446,7 +1560,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2016</c:v>
+            <c:strRef>
+              <c:f>forCharts!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1517,54 +1639,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>import!$A$42:$A$46</c:f>
+              <c:f>forCharts!$C$7:$C$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>POP_TOT</c:v>
+                  <c:v>30-Min Walk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DU_TOT</c:v>
+                  <c:v>30-Min Bike Ride</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>EMPTOT</c:v>
+                  <c:v>30-Min Drive</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ENR_K12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>EMPIND</c:v>
+                  <c:v>45-Min Transit Trip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>import!$B$42:$B$46</c:f>
+              <c:f>forCharts!$D$7:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1061613</c:v>
+                  <c:v>4960</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>407764</c:v>
+                  <c:v>47150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>531751.50999998499</c:v>
+                  <c:v>546923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150618</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71163.279999999795</c:v>
+                  <c:v>28736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C3D8-4538-B6AF-53DBF0BD1F58}"/>
+              <c16:uniqueId val="{00000008-D439-4D98-9CB6-805FEB0DEA54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1572,7 +1688,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2040</c:v>
+            <c:strRef>
+              <c:f>forCharts!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Region2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1643,54 +1767,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>import!$A$42:$A$46</c:f>
+              <c:f>forCharts!$C$7:$C$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>POP_TOT</c:v>
+                  <c:v>30-Min Walk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DU_TOT</c:v>
+                  <c:v>30-Min Bike Ride</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>EMPTOT</c:v>
+                  <c:v>30-Min Drive</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ENR_K12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>EMPIND</c:v>
+                  <c:v>45-Min Transit Trip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>import!$C$42:$C$46</c:f>
+              <c:f>forCharts!$F$7:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1359260</c:v>
+                  <c:v>3842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>534065.11439468805</c:v>
+                  <c:v>37354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>674055.51999998197</c:v>
+                  <c:v>475047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93141.840000000797</c:v>
+                  <c:v>22213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C3D8-4538-B6AF-53DBF0BD1F58}"/>
+              <c16:uniqueId val="{00000009-D439-4D98-9CB6-805FEB0DEA54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1702,13 +1820,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1126745616"/>
-        <c:axId val="1163749472"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="1301966480"/>
+        <c:axId val="1053666400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1126745616"/>
+        <c:axId val="1301966480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +1868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163749472"/>
+        <c:crossAx val="1053666400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1759,7 +1876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1163749472"/>
+        <c:axId val="1053666400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,7 +1896,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1810,7 +1927,2664 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126745616"/>
+        <c:crossAx val="1301966480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Services Accessible</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$11:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30-Min Walk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-Min Bike Ride</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15-Min Drive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-Min Transit Trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$D$11:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91DD-4635-A78D-3AA4244501BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Region2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$11:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30-Min Walk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-Min Bike Ride</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15-Min Drive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-Min Transit Trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$F$11:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-91DD-4635-A78D-3AA4244501BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1301966480"/>
+        <c:axId val="1053666400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1301966480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1053666400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1053666400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301966480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mode Split of Residents within Trip Shed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$29:$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bike</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.405389804382291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45491166706506903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4478379574891301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8928352830073299E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3624989414626094E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA84-46AE-9A82-221B13C92779}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$29:$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bike</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$E$29:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.400785756179798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43427218186495598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7441256704632301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1377405909886802E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6124186696880901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA84-46AE-9A82-221B13C92779}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1301966480"/>
+        <c:axId val="1053666400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1301966480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1053666400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1053666400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301966480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Housing Stock Diversity within Trip Shed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$22:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>High Density Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Med-High Density Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Medium Density Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mixed Use Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Low Density Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Very Low or Rural Res Density Housing Units</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$D$22:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33920</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-31F0-4929-BE27-FB8860094964}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$22:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>High Density Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Med-High Density Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Medium Density Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mixed Use Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Low Density Housing Units</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Very Low or Rural Res Density Housing Units</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$E$22:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>61837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-31F0-4929-BE27-FB8860094964}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1301966480"/>
+        <c:axId val="1053666400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1301966480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1053666400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1053666400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301966480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Acres of Natural Resources within</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Trip Shed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15663272233536998"/>
+          <c:y val="3.2921792411989753E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acres of Natural Resources (Parks, Open Space, Ag)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C84-4BC4-9C5B-A3805F3595DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acres of Natural Resources (Parks, Open Space, Ag)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C84-4BC4-9C5B-A3805F3595DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1301966480"/>
+        <c:axId val="1053666400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1301966480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1053666400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1053666400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301966480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Land Use Mix Index within Trip Shed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15663272233536998"/>
+          <c:y val="3.2921792411989753E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mix Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.777760376364661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87BC-4EC0-B66A-1F68D6061C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forCharts!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trip Shed 2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>forCharts!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mix Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>forCharts!$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.80727015823190695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87BC-4EC0-B66A-1F68D6061C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1301966480"/>
+        <c:axId val="1053666400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1301966480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1053666400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1053666400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301966480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,6 +4751,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2983,27 +5957,2542 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D5868B-1EA9-4B0D-B210-EC5B17962A6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDBEFD1-A976-427A-8176-96EFC3BCAAA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,23 +8512,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEE8DB1-80E8-48DE-A3AB-6C6840D2BFB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742BFA9B-0CF9-4265-BCCA-77414FB52CF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,6 +8543,206 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970D88DF-D0D1-48A6-8E9C-390E4780FE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B1A4D4-3758-434B-846E-518AF1175541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCE48E7-4C99-41F1-BD21-D68EDEC9422C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77619E6E-E6EB-447C-95BC-B97366FCF644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB920E8-686D-47EF-AA42-94061C454F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3358,12 +9047,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3373,12 +9066,1204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E6E1B5-5860-4AFD-BC3F-561D022A58BF}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAE9B0D-BCC5-4D06-BA9F-330DA27E6394}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="D22" sqref="D22:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="3">
+        <f>ROUND(VLOOKUP($A3,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <f>ROUND(VLOOKUP($A3,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>ROUND(VLOOKUP($A3,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <f>ROUND(VLOOKUP($A3,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="3">
+        <f>ROUND(VLOOKUP($A4,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>46</v>
+      </c>
+      <c r="E4" s="3">
+        <f>ROUND(VLOOKUP($A4,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>ROUND(VLOOKUP($A4,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>38</v>
+      </c>
+      <c r="G4" s="3">
+        <f>ROUND(VLOOKUP($A4,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3">
+        <f>ROUND(VLOOKUP($A5,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>566</v>
+      </c>
+      <c r="E5" s="3">
+        <f>ROUND(VLOOKUP($A5,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f>ROUND(VLOOKUP($A5,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>493</v>
+      </c>
+      <c r="G5" s="3">
+        <f>ROUND(VLOOKUP($A5,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3">
+        <f>ROUND(VLOOKUP($A6,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <f>ROUND(VLOOKUP($A6,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f>ROUND(VLOOKUP($A6,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <f>ROUND(VLOOKUP($A6,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3">
+        <f>ROUND(VLOOKUP($A7,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>4960</v>
+      </c>
+      <c r="E7" s="3">
+        <f>ROUND(VLOOKUP($A7,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f>ROUND(VLOOKUP($A7,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>3842</v>
+      </c>
+      <c r="G7" s="3">
+        <f>ROUND(VLOOKUP($A7,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="3">
+        <f>ROUND(VLOOKUP($A8,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>47150</v>
+      </c>
+      <c r="E8" s="3">
+        <f>ROUND(VLOOKUP($A8,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f>ROUND(VLOOKUP($A8,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>37354</v>
+      </c>
+      <c r="G8" s="3">
+        <f>ROUND(VLOOKUP($A8,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="3">
+        <f>ROUND(VLOOKUP($A9,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>546923</v>
+      </c>
+      <c r="E9" s="3">
+        <f>ROUND(VLOOKUP($A9,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f>ROUND(VLOOKUP($A9,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>475047</v>
+      </c>
+      <c r="G9" s="3">
+        <f>ROUND(VLOOKUP($A9,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="3">
+        <f>ROUND(VLOOKUP($A10,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>28736</v>
+      </c>
+      <c r="E10" s="3">
+        <f>ROUND(VLOOKUP($A10,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f>ROUND(VLOOKUP($A10,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>22213</v>
+      </c>
+      <c r="G10" s="3">
+        <f>ROUND(VLOOKUP($A10,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="3">
+        <f>ROUND(VLOOKUP($A11,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <f>ROUND(VLOOKUP($A11,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f>ROUND(VLOOKUP($A11,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>17</v>
+      </c>
+      <c r="G11" s="3">
+        <f>ROUND(VLOOKUP($A11,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3">
+        <f>ROUND(VLOOKUP($A12,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>170</v>
+      </c>
+      <c r="E12" s="3">
+        <f>ROUND(VLOOKUP($A12,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f>ROUND(VLOOKUP($A12,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>140</v>
+      </c>
+      <c r="G12" s="3">
+        <f>ROUND(VLOOKUP($A12,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3">
+        <f>ROUND(VLOOKUP($A13,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>657</v>
+      </c>
+      <c r="E13" s="3">
+        <f>ROUND(VLOOKUP($A13,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f>ROUND(VLOOKUP($A13,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>520</v>
+      </c>
+      <c r="G13" s="3">
+        <f>ROUND(VLOOKUP($A13,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="3">
+        <f>ROUND(VLOOKUP($A14,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>97</v>
+      </c>
+      <c r="E14" s="3">
+        <f>ROUND(VLOOKUP($A14,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f>ROUND(VLOOKUP($A14,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>78</v>
+      </c>
+      <c r="G14" s="3">
+        <f>ROUND(VLOOKUP($A14,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="3">
+        <f>ROUND(VLOOKUP($A15,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f>ROUND(VLOOKUP($A15,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f>ROUND(VLOOKUP($A15,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f>ROUND(VLOOKUP($A15,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="3">
+        <f>ROUND(VLOOKUP($A16,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>557961</v>
+      </c>
+      <c r="E16" s="3">
+        <f>ROUND(VLOOKUP($A16,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f>ROUND(VLOOKUP($A16,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f>ROUND(VLOOKUP($A16,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3">
+        <f>ROUND(VLOOKUP($A17,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>503652</v>
+      </c>
+      <c r="E17" s="3">
+        <f>ROUND(VLOOKUP($A17,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f>ROUND(VLOOKUP($A17,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f>ROUND(VLOOKUP($A17,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3">
+        <f>ROUND(VLOOKUP($A18,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>407764</v>
+      </c>
+      <c r="E18" s="3">
+        <f>ROUND(VLOOKUP($A18,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>534065</v>
+      </c>
+      <c r="F18" s="3">
+        <f>ROUND(VLOOKUP($A18,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f>ROUND(VLOOKUP($A18,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3">
+        <f>ROUND(VLOOKUP($A19,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>531752</v>
+      </c>
+      <c r="E19" s="3">
+        <f>ROUND(VLOOKUP($A19,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>674056</v>
+      </c>
+      <c r="F19" s="3">
+        <f>ROUND(VLOOKUP($A19,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f>ROUND(VLOOKUP($A19,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="3">
+        <f>ROUND(VLOOKUP($A20,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>71163</v>
+      </c>
+      <c r="E20" s="3">
+        <f>ROUND(VLOOKUP($A20,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>93142</v>
+      </c>
+      <c r="F20" s="3">
+        <f>ROUND(VLOOKUP($A20,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f>ROUND(VLOOKUP($A20,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="3">
+        <f>ROUND(VLOOKUP($A21,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>150618</v>
+      </c>
+      <c r="E21" s="3">
+        <f>ROUND(VLOOKUP($A21,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>216033</v>
+      </c>
+      <c r="F21" s="3">
+        <f>ROUND(VLOOKUP($A21,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f>ROUND(VLOOKUP($A21,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3">
+        <f>ROUND(VLOOKUP($A22,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>33920</v>
+      </c>
+      <c r="E22" s="3">
+        <f>ROUND(VLOOKUP($A22,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>61837</v>
+      </c>
+      <c r="F22" s="3">
+        <f>ROUND(VLOOKUP($A22,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f>ROUND(VLOOKUP($A22,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="3">
+        <f>ROUND(VLOOKUP($A23,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>82235</v>
+      </c>
+      <c r="E23" s="3">
+        <f>ROUND(VLOOKUP($A23,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>103459</v>
+      </c>
+      <c r="F23" s="3">
+        <f>ROUND(VLOOKUP($A23,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f>ROUND(VLOOKUP($A23,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="3">
+        <f>ROUND(VLOOKUP($A24,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>69501</v>
+      </c>
+      <c r="E24" s="3">
+        <f>ROUND(VLOOKUP($A24,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>87481</v>
+      </c>
+      <c r="F24" s="3">
+        <f>ROUND(VLOOKUP($A24,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f>ROUND(VLOOKUP($A24,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="3">
+        <f>ROUND(VLOOKUP($A25,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>2339</v>
+      </c>
+      <c r="E25" s="3">
+        <f>ROUND(VLOOKUP($A25,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>30098</v>
+      </c>
+      <c r="F25" s="3">
+        <f>ROUND(VLOOKUP($A25,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f>ROUND(VLOOKUP($A25,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="3">
+        <f>ROUND(VLOOKUP($A26,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>176956</v>
+      </c>
+      <c r="E26" s="3">
+        <f>ROUND(VLOOKUP($A26,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>205839</v>
+      </c>
+      <c r="F26" s="3">
+        <f>ROUND(VLOOKUP($A26,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f>ROUND(VLOOKUP($A26,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="3">
+        <f>ROUND(VLOOKUP($A27,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>42813</v>
+      </c>
+      <c r="E27" s="3">
+        <f>ROUND(VLOOKUP($A27,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>45351</v>
+      </c>
+      <c r="F27" s="3">
+        <f>ROUND(VLOOKUP($A27,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f>ROUND(VLOOKUP($A27,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="1">
+        <f>VLOOKUP($A28,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0.777760376364661</v>
+      </c>
+      <c r="E28" s="1">
+        <f>VLOOKUP($A28,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0.80727015823190695</v>
+      </c>
+      <c r="F28" s="1">
+        <f>VLOOKUP($A28,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0.99998912009623397</v>
+      </c>
+      <c r="G28" s="1">
+        <f>VLOOKUP($A28,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0.93085349575304899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="4">
+        <f>VLOOKUP($A29,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0.405389804382291</v>
+      </c>
+      <c r="E29" s="4">
+        <f>VLOOKUP($A29,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0.400785756179798</v>
+      </c>
+      <c r="F29" s="4">
+        <f>VLOOKUP($A29,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f>VLOOKUP($A29,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="4">
+        <f>VLOOKUP($A30,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0.45491166706506903</v>
+      </c>
+      <c r="E30" s="4">
+        <f>VLOOKUP($A30,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0.43427218186495598</v>
+      </c>
+      <c r="F30" s="4">
+        <f>VLOOKUP($A30,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f>VLOOKUP($A30,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="4">
+        <f>VLOOKUP($A31,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>1.4478379574891301E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f>VLOOKUP($A31,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>2.7441256704632301E-2</v>
+      </c>
+      <c r="F31" s="4">
+        <f>VLOOKUP($A31,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f>VLOOKUP($A31,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4">
+        <f>VLOOKUP($A32,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>2.8928352830073299E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <f>VLOOKUP($A32,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>3.1377405909886802E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <f>VLOOKUP($A32,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f>VLOOKUP($A32,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="4">
+        <f>VLOOKUP($A33,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>8.3624989414626094E-2</v>
+      </c>
+      <c r="E33" s="4">
+        <f>VLOOKUP($A33,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>9.6124186696880901E-2</v>
+      </c>
+      <c r="F33" s="4">
+        <f>VLOOKUP($A33,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <f>VLOOKUP($A33,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="3">
+        <f>ROUND(VLOOKUP($A34,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>20302</v>
+      </c>
+      <c r="E34" s="3">
+        <f>ROUND(VLOOKUP($A34,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>20032</v>
+      </c>
+      <c r="F34" s="3">
+        <f>ROUND(VLOOKUP($A34,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <f>ROUND(VLOOKUP($A34,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="3">
+        <f>ROUND(VLOOKUP($A35,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>1061613</v>
+      </c>
+      <c r="E35" s="3">
+        <f>ROUND(VLOOKUP($A35,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>1359260</v>
+      </c>
+      <c r="F35" s="3">
+        <f>ROUND(VLOOKUP($A35,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <f>ROUND(VLOOKUP($A35,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="3">
+        <f>ROUND(VLOOKUP($A36,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>3731564</v>
+      </c>
+      <c r="E36" s="3">
+        <f>ROUND(VLOOKUP($A36,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>4750074</v>
+      </c>
+      <c r="F36" s="3">
+        <f>ROUND(VLOOKUP($A36,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <f>ROUND(VLOOKUP($A36,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="3">
+        <f>ROUND(VLOOKUP($A37,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>1512738</v>
+      </c>
+      <c r="E37" s="3">
+        <f>ROUND(VLOOKUP($A37,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>1903762</v>
+      </c>
+      <c r="F37" s="3">
+        <f>ROUND(VLOOKUP($A37,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <f>ROUND(VLOOKUP($A37,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3">
+        <f>ROUND(VLOOKUP($A38,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>1697532</v>
+      </c>
+      <c r="E38" s="3">
+        <f>ROUND(VLOOKUP($A38,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>2062825</v>
+      </c>
+      <c r="F38" s="3">
+        <f>ROUND(VLOOKUP($A38,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <f>ROUND(VLOOKUP($A38,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3">
+        <f>ROUND(VLOOKUP($A39,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>54027</v>
+      </c>
+      <c r="E39" s="3">
+        <f>ROUND(VLOOKUP($A39,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>130348</v>
+      </c>
+      <c r="F39" s="3">
+        <f>ROUND(VLOOKUP($A39,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <f>ROUND(VLOOKUP($A39,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="3">
+        <f>ROUND(VLOOKUP($A40,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>107948</v>
+      </c>
+      <c r="E40" s="3">
+        <f>ROUND(VLOOKUP($A40,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>149045</v>
+      </c>
+      <c r="F40" s="3">
+        <f>ROUND(VLOOKUP($A40,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f>ROUND(VLOOKUP($A40,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="3">
+        <f>ROUND(VLOOKUP($A41,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>312052</v>
+      </c>
+      <c r="E41" s="3">
+        <f>ROUND(VLOOKUP($A41,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>456597</v>
+      </c>
+      <c r="F41" s="3">
+        <f>ROUND(VLOOKUP($A41,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f>ROUND(VLOOKUP($A41,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="3">
+        <f>ROUND(VLOOKUP($A42,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <f>ROUND(VLOOKUP($A42,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f>ROUND(VLOOKUP($A42,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f>ROUND(VLOOKUP($A42,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="3">
+        <f>ROUND(VLOOKUP($A43,import!$A$1:$E$67,MATCH(forCharts!D$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>939516</v>
+      </c>
+      <c r="E43" s="3">
+        <f>ROUND(VLOOKUP($A43,import!$A$1:$E$67,MATCH(forCharts!E$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>1208121</v>
+      </c>
+      <c r="F43" s="3">
+        <f>ROUND(VLOOKUP($A43,import!$A$1:$E$67,MATCH(forCharts!F$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f>ROUND(VLOOKUP($A43,import!$A$1:$E$67,MATCH(forCharts!G$1,import!$B$1:$E$1,0)+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G43">
+    <sortCondition ref="B3:B43"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A5:A16"/>
+    </sheetView>
+    <sheetView topLeftCell="A22" workbookViewId="1">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4066,319 +10951,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92F81DF-CC5E-43E2-AF09-2FC9A76F6E0E}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2040</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PostProcessing/PPA_tripshed_template.xlsx
+++ b/PostProcessing/PPA_tripshed_template.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PostProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330B6F9A-ED72-4DB1-8C7D-C79B8524B8AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235C3C4C-DA15-4718-9C4B-EABDBB76DE35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DFF4E10C-C4B4-4997-8CEE-1FD4BC1C0984}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DFF4E10C-C4B4-4997-8CEE-1FD4BC1C0984}"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility" sheetId="2" r:id="rId1"/>
@@ -9073,7 +9073,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -9110,7 +9110,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <selection activeCell="D22" sqref="D22:D27"/>
     </sheetView>
   </sheetViews>
@@ -10262,8 +10262,8 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A5:A16"/>
     </sheetView>
-    <sheetView topLeftCell="A22" workbookViewId="1">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="1">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
